--- a/data/steel/factories/iron_DRI_factory-HC.xlsx
+++ b/data/steel/factories/iron_DRI_factory-HC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="465" windowWidth="20355" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="3375" yWindow="465" windowWidth="20355" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="62">
   <si>
     <t>Inflow</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>syngas</t>
-  </si>
-  <si>
-    <t>hot rolled coil</t>
   </si>
   <si>
     <t>simple_syngas</t>
@@ -620,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,16 +647,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,63 +712,63 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -784,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -844,10 +841,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
@@ -873,7 +870,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -899,7 +896,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
@@ -917,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
@@ -931,7 +928,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -954,10 +951,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1061,10 +1058,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1073,19 +1070,19 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1093,33 +1090,33 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1142,36 +1139,36 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1180,27 +1177,27 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1223,57 +1220,57 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1281,56 +1278,56 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
@@ -1404,7 +1401,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,24 +1436,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/factories/iron_DRI_factory-HC.xlsx
+++ b/data/steel/factories/iron_DRI_factory-HC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279338A-28A9-694C-9165-A65506A45DC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="465" windowWidth="20355" windowHeight="17535"/>
+    <workbookView xWindow="3380" yWindow="460" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -22,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="63">
   <si>
     <t>Inflow</t>
   </si>
@@ -173,18 +168,12 @@
     <t>simple_CO2storage</t>
   </si>
   <si>
-    <t>CO2__pure</t>
-  </si>
-  <si>
     <t>compressed CO2</t>
   </si>
   <si>
     <t>inflows</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
@@ -219,12 +208,21 @@
   </si>
   <si>
     <t>iron</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__bio (pure)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -303,7 +301,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,21 +612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -645,9 +643,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -656,10 +654,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -673,7 +671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -687,7 +685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -701,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -715,7 +713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -729,9 +727,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -740,24 +738,24 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -778,30 +776,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -839,12 +837,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
@@ -868,9 +866,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -894,9 +892,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
@@ -920,7 +918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -949,12 +947,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -978,7 +976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1056,12 +1054,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1070,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>42</v>
@@ -1085,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -1096,13 +1094,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>42</v>
@@ -1111,243 +1109,321 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="I22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1357,21 +1433,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1393,7 +1469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1404,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
@@ -1414,16 +1490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1434,20 +1510,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>

--- a/data/steel/factories/iron_DRI_factory-HC.xlsx
+++ b/data/steel/factories/iron_DRI_factory-HC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279338A-28A9-694C-9165-A65506A45DC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029317C-44AC-794B-A222-A9B39B9A4B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="460" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="66">
   <si>
     <t>Inflow</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>CO2__bio (pure)</t>
+  </si>
+  <si>
+    <t>CCS power</t>
+  </si>
+  <si>
+    <t>duplicate_power</t>
+  </si>
+  <si>
+    <t>CO2__calcination</t>
   </si>
 </sst>
 </file>
@@ -613,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,32 +752,46 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,10 +1204,10 @@
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1270,109 +1293,106 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,48 +1403,155 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
